--- a/JupyterNotebooks/AveragedIntensities-Exp/TRIP780F.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-Exp/TRIP780F.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>HKL</t>
   </si>
   <si>
     <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Bruker</t>
   </si>
   <si>
     <t>ND Single</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,55 +636,55 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -692,55 +695,55 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9089722222222222</v>
+        <v>0.8996829971181556</v>
       </c>
       <c r="D3">
-        <v>1.1455</v>
+        <v>1.119661383285303</v>
       </c>
       <c r="E3">
-        <v>1.068444444444445</v>
+        <v>1.058760806916426</v>
       </c>
       <c r="F3">
-        <v>0.9089722222222222</v>
+        <v>0.8996829971181556</v>
       </c>
       <c r="G3">
-        <v>0.9421388888888889</v>
+        <v>0.952478386167147</v>
       </c>
       <c r="H3">
-        <v>1.246583333333333</v>
+        <v>1.219121037463977</v>
       </c>
       <c r="I3">
-        <v>0.9557222222222223</v>
+        <v>0.9581556195965418</v>
       </c>
       <c r="J3">
-        <v>1.1455</v>
+        <v>1.119661383285303</v>
       </c>
       <c r="K3">
-        <v>0.9089722222222222</v>
+        <v>0.8996829971181556</v>
       </c>
       <c r="L3">
-        <v>1.106972222222222</v>
+        <v>1.089211095100865</v>
       </c>
       <c r="M3">
-        <v>1.106972222222222</v>
+        <v>1.089211095100865</v>
       </c>
       <c r="N3">
-        <v>1.052027777777778</v>
+        <v>1.043633525456292</v>
       </c>
       <c r="O3">
-        <v>1.040972222222222</v>
+        <v>1.026035062439962</v>
       </c>
       <c r="P3">
-        <v>1.040972222222222</v>
+        <v>1.026035062439962</v>
       </c>
       <c r="Q3">
-        <v>1.007972222222222</v>
+        <v>0.9944470461095101</v>
       </c>
       <c r="R3">
-        <v>1.007972222222222</v>
+        <v>0.9944470461095101</v>
       </c>
       <c r="S3">
-        <v>1.044560185185185</v>
+        <v>1.034643371757925</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -751,55 +754,55 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.28</v>
+        <v>1.018868648468303</v>
       </c>
       <c r="D4">
-        <v>2.43</v>
+        <v>0.9836119401596463</v>
       </c>
       <c r="E4">
-        <v>1.69</v>
+        <v>0.9886491540478671</v>
       </c>
       <c r="F4">
-        <v>0.28</v>
+        <v>1.018868648468303</v>
       </c>
       <c r="G4">
-        <v>0.55</v>
+        <v>0.9848273077476826</v>
       </c>
       <c r="H4">
-        <v>3.28</v>
+        <v>0.978801085555668</v>
       </c>
       <c r="I4">
-        <v>0.6899999999999999</v>
+        <v>0.9858173386831287</v>
       </c>
       <c r="J4">
-        <v>2.43</v>
+        <v>0.9836119401596463</v>
       </c>
       <c r="K4">
-        <v>0.28</v>
+        <v>1.018868648468303</v>
       </c>
       <c r="L4">
-        <v>2.06</v>
+        <v>0.9861305471037567</v>
       </c>
       <c r="M4">
-        <v>2.06</v>
+        <v>0.9861305471037567</v>
       </c>
       <c r="N4">
-        <v>1.556666666666667</v>
+        <v>0.9856961339850653</v>
       </c>
       <c r="O4">
-        <v>1.466666666666667</v>
+        <v>0.9970432475586053</v>
       </c>
       <c r="P4">
-        <v>1.466666666666667</v>
+        <v>0.9970432475586053</v>
       </c>
       <c r="Q4">
-        <v>1.17</v>
+        <v>1.00249959778603</v>
       </c>
       <c r="R4">
-        <v>1.17</v>
+        <v>1.00249959778603</v>
       </c>
       <c r="S4">
-        <v>1.486666666666667</v>
+        <v>0.9900959124437159</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -810,55 +813,55 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.04</v>
+        <v>0.28</v>
       </c>
       <c r="D5">
-        <v>0.46</v>
+        <v>2.43</v>
       </c>
       <c r="E5">
-        <v>0.98</v>
+        <v>1.69</v>
       </c>
       <c r="F5">
-        <v>2.04</v>
+        <v>0.28</v>
       </c>
       <c r="G5">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="H5">
-        <v>1.65</v>
+        <v>3.28</v>
       </c>
       <c r="I5">
-        <v>1.01</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J5">
-        <v>0.46</v>
+        <v>2.43</v>
       </c>
       <c r="K5">
-        <v>2.04</v>
+        <v>0.28</v>
       </c>
       <c r="L5">
-        <v>0.72</v>
+        <v>2.06</v>
       </c>
       <c r="M5">
-        <v>0.72</v>
+        <v>2.06</v>
       </c>
       <c r="N5">
-        <v>0.64</v>
+        <v>1.556666666666667</v>
       </c>
       <c r="O5">
-        <v>1.16</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="P5">
-        <v>1.16</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="Q5">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="R5">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="S5">
-        <v>1.103333333333333</v>
+        <v>1.486666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -869,55 +872,55 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.18</v>
+        <v>2.04</v>
       </c>
       <c r="D6">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="E6">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="F6">
-        <v>6.18</v>
+        <v>2.04</v>
       </c>
       <c r="G6">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="H6">
-        <v>0.23</v>
+        <v>1.65</v>
       </c>
       <c r="I6">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J6">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="K6">
-        <v>6.18</v>
+        <v>2.04</v>
       </c>
       <c r="L6">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
       <c r="M6">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
       <c r="N6">
-        <v>0.5333333333333333</v>
+        <v>0.64</v>
       </c>
       <c r="O6">
-        <v>2.446666666666667</v>
+        <v>1.16</v>
       </c>
       <c r="P6">
-        <v>2.446666666666666</v>
+        <v>1.16</v>
       </c>
       <c r="Q6">
-        <v>3.38</v>
+        <v>1.38</v>
       </c>
       <c r="R6">
-        <v>3.38</v>
+        <v>1.38</v>
       </c>
       <c r="S6">
-        <v>1.505</v>
+        <v>1.103333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -928,55 +931,55 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.24</v>
+        <v>6.18</v>
       </c>
       <c r="D7">
-        <v>1.75</v>
+        <v>0.31</v>
       </c>
       <c r="E7">
-        <v>2.03</v>
+        <v>0.85</v>
       </c>
       <c r="F7">
-        <v>0.24</v>
+        <v>6.18</v>
       </c>
       <c r="G7">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="H7">
-        <v>3.88</v>
+        <v>0.23</v>
       </c>
       <c r="I7">
+        <v>1.02</v>
+      </c>
+      <c r="J7">
+        <v>0.31</v>
+      </c>
+      <c r="K7">
+        <v>6.18</v>
+      </c>
+      <c r="L7">
         <v>0.58</v>
       </c>
-      <c r="J7">
-        <v>1.75</v>
-      </c>
-      <c r="K7">
-        <v>0.24</v>
-      </c>
-      <c r="L7">
-        <v>1.89</v>
-      </c>
       <c r="M7">
-        <v>1.89</v>
+        <v>0.58</v>
       </c>
       <c r="N7">
-        <v>1.433333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O7">
-        <v>1.34</v>
+        <v>2.446666666666667</v>
       </c>
       <c r="P7">
-        <v>1.34</v>
+        <v>2.446666666666666</v>
       </c>
       <c r="Q7">
-        <v>1.065</v>
+        <v>3.38</v>
       </c>
       <c r="R7">
-        <v>1.065</v>
+        <v>3.38</v>
       </c>
       <c r="S7">
-        <v>1.5</v>
+        <v>1.505</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -987,55 +990,55 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.726849315068493</v>
+        <v>0.24</v>
       </c>
       <c r="D8">
-        <v>0.7254794520547945</v>
+        <v>1.75</v>
       </c>
       <c r="E8">
-        <v>0.9473972602739726</v>
+        <v>2.03</v>
       </c>
       <c r="F8">
-        <v>1.726849315068493</v>
+        <v>0.24</v>
       </c>
       <c r="G8">
-        <v>0.9101369863013699</v>
+        <v>0.52</v>
       </c>
       <c r="H8">
-        <v>0.6608219178082192</v>
+        <v>3.88</v>
       </c>
       <c r="I8">
-        <v>0.9795890410958904</v>
+        <v>0.58</v>
       </c>
       <c r="J8">
-        <v>0.7254794520547945</v>
+        <v>1.75</v>
       </c>
       <c r="K8">
-        <v>1.726849315068493</v>
+        <v>0.24</v>
       </c>
       <c r="L8">
-        <v>0.8364383561643836</v>
+        <v>1.89</v>
       </c>
       <c r="M8">
-        <v>0.8364383561643836</v>
+        <v>1.89</v>
       </c>
       <c r="N8">
-        <v>0.8610045662100457</v>
+        <v>1.433333333333333</v>
       </c>
       <c r="O8">
-        <v>1.13324200913242</v>
+        <v>1.34</v>
       </c>
       <c r="P8">
-        <v>1.13324200913242</v>
+        <v>1.34</v>
       </c>
       <c r="Q8">
-        <v>1.281643835616438</v>
+        <v>1.065</v>
       </c>
       <c r="R8">
-        <v>1.281643835616438</v>
+        <v>1.065</v>
       </c>
       <c r="S8">
-        <v>0.9917123287671231</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1046,55 +1049,55 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.344736842105263</v>
+        <v>1.726849315068493</v>
       </c>
       <c r="D9">
-        <v>0.8047368421052632</v>
+        <v>0.7254794520547945</v>
       </c>
       <c r="E9">
-        <v>0.9910526315789474</v>
+        <v>0.9473972602739726</v>
       </c>
       <c r="F9">
-        <v>1.344736842105263</v>
+        <v>1.726849315068493</v>
       </c>
       <c r="G9">
-        <v>0.8100000000000001</v>
+        <v>0.9101369863013699</v>
       </c>
       <c r="H9">
-        <v>1.310526315789474</v>
+        <v>0.6608219178082192</v>
       </c>
       <c r="I9">
-        <v>1.014210526315789</v>
+        <v>0.9795890410958904</v>
       </c>
       <c r="J9">
-        <v>0.8047368421052632</v>
+        <v>0.7254794520547945</v>
       </c>
       <c r="K9">
-        <v>1.344736842105263</v>
+        <v>1.726849315068493</v>
       </c>
       <c r="L9">
-        <v>0.8978947368421053</v>
+        <v>0.8364383561643836</v>
       </c>
       <c r="M9">
-        <v>0.8978947368421053</v>
+        <v>0.8364383561643836</v>
       </c>
       <c r="N9">
-        <v>0.8685964912280703</v>
+        <v>0.8610045662100457</v>
       </c>
       <c r="O9">
-        <v>1.046842105263158</v>
+        <v>1.13324200913242</v>
       </c>
       <c r="P9">
-        <v>1.046842105263158</v>
+        <v>1.13324200913242</v>
       </c>
       <c r="Q9">
-        <v>1.121315789473684</v>
+        <v>1.281643835616438</v>
       </c>
       <c r="R9">
-        <v>1.121315789473684</v>
+        <v>1.281643835616438</v>
       </c>
       <c r="S9">
-        <v>1.045877192982456</v>
+        <v>0.9917123287671231</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1105,55 +1108,55 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8589473684210527</v>
+        <v>1.344736842105263</v>
       </c>
       <c r="D10">
-        <v>1.334736842105263</v>
+        <v>0.8047368421052632</v>
       </c>
       <c r="E10">
-        <v>1.236842105263158</v>
+        <v>0.9910526315789474</v>
       </c>
       <c r="F10">
-        <v>0.8589473684210527</v>
+        <v>1.344736842105263</v>
       </c>
       <c r="G10">
-        <v>0.7984210526315789</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H10">
-        <v>2.01578947368421</v>
+        <v>1.310526315789474</v>
       </c>
       <c r="I10">
-        <v>0.8463157894736842</v>
+        <v>1.014210526315789</v>
       </c>
       <c r="J10">
-        <v>1.334736842105263</v>
+        <v>0.8047368421052632</v>
       </c>
       <c r="K10">
-        <v>0.8589473684210527</v>
+        <v>1.344736842105263</v>
       </c>
       <c r="L10">
-        <v>1.285789473684211</v>
+        <v>0.8978947368421053</v>
       </c>
       <c r="M10">
-        <v>1.285789473684211</v>
+        <v>0.8978947368421053</v>
       </c>
       <c r="N10">
-        <v>1.123333333333333</v>
+        <v>0.8685964912280703</v>
       </c>
       <c r="O10">
-        <v>1.143508771929825</v>
+        <v>1.046842105263158</v>
       </c>
       <c r="P10">
-        <v>1.143508771929824</v>
+        <v>1.046842105263158</v>
       </c>
       <c r="Q10">
-        <v>1.072368421052632</v>
+        <v>1.121315789473684</v>
       </c>
       <c r="R10">
-        <v>1.072368421052632</v>
+        <v>1.121315789473684</v>
       </c>
       <c r="S10">
-        <v>1.181842105263158</v>
+        <v>1.045877192982456</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1164,55 +1167,55 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.3936919999999989</v>
+        <v>0.8589473684210527</v>
       </c>
       <c r="D11">
-        <v>2.092115999999994</v>
+        <v>1.334736842105263</v>
       </c>
       <c r="E11">
-        <v>1.514191999999997</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="F11">
-        <v>0.3936919999999989</v>
+        <v>0.8589473684210527</v>
       </c>
       <c r="G11">
-        <v>0.7221799999999982</v>
+        <v>0.7984210526315789</v>
       </c>
       <c r="H11">
-        <v>2.71490800000001</v>
+        <v>2.01578947368421</v>
       </c>
       <c r="I11">
-        <v>0.727136000000001</v>
+        <v>0.8463157894736842</v>
       </c>
       <c r="J11">
-        <v>2.092115999999994</v>
+        <v>1.334736842105263</v>
       </c>
       <c r="K11">
-        <v>0.3936919999999989</v>
+        <v>0.8589473684210527</v>
       </c>
       <c r="L11">
-        <v>1.803153999999995</v>
+        <v>1.285789473684211</v>
       </c>
       <c r="M11">
-        <v>1.803153999999995</v>
+        <v>1.285789473684211</v>
       </c>
       <c r="N11">
-        <v>1.44282933333333</v>
+        <v>1.123333333333333</v>
       </c>
       <c r="O11">
-        <v>1.33333333333333</v>
+        <v>1.143508771929825</v>
       </c>
       <c r="P11">
-        <v>1.33333333333333</v>
+        <v>1.143508771929824</v>
       </c>
       <c r="Q11">
-        <v>1.098422999999997</v>
+        <v>1.072368421052632</v>
       </c>
       <c r="R11">
-        <v>1.098422999999997</v>
+        <v>1.072368421052632</v>
       </c>
       <c r="S11">
-        <v>1.360704</v>
+        <v>1.181842105263158</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1223,55 +1226,55 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.28</v>
+        <v>0.3936919999999989</v>
       </c>
       <c r="D12">
-        <v>2.427662499999996</v>
+        <v>2.092115999999994</v>
       </c>
       <c r="E12">
-        <v>1.685850000000001</v>
+        <v>1.514191999999997</v>
       </c>
       <c r="F12">
-        <v>0.28</v>
+        <v>0.3936919999999989</v>
       </c>
       <c r="G12">
-        <v>0.5423624999999999</v>
+        <v>0.7221799999999982</v>
       </c>
       <c r="H12">
-        <v>3.286662500000002</v>
+        <v>2.71490800000001</v>
       </c>
       <c r="I12">
-        <v>0.6899999999999999</v>
+        <v>0.727136000000001</v>
       </c>
       <c r="J12">
-        <v>2.427662499999996</v>
+        <v>2.092115999999994</v>
       </c>
       <c r="K12">
-        <v>0.28</v>
+        <v>0.3936919999999989</v>
       </c>
       <c r="L12">
-        <v>2.056756249999999</v>
+        <v>1.803153999999995</v>
       </c>
       <c r="M12">
-        <v>2.056756249999999</v>
+        <v>1.803153999999995</v>
       </c>
       <c r="N12">
-        <v>1.551958333333332</v>
+        <v>1.44282933333333</v>
       </c>
       <c r="O12">
-        <v>1.464504166666666</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="P12">
-        <v>1.464504166666665</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="Q12">
-        <v>1.168378124999999</v>
+        <v>1.098422999999997</v>
       </c>
       <c r="R12">
-        <v>1.168378124999999</v>
+        <v>1.098422999999997</v>
       </c>
       <c r="S12">
-        <v>1.485422916666666</v>
+        <v>1.360704</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1282,55 +1285,55 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.5666026567680008</v>
+        <v>0.28</v>
       </c>
       <c r="D13">
-        <v>1.780130991308805</v>
+        <v>2.427662499999996</v>
       </c>
       <c r="E13">
-        <v>1.373312286720004</v>
+        <v>1.685850000000001</v>
       </c>
       <c r="F13">
-        <v>0.5666026567680008</v>
+        <v>0.28</v>
       </c>
       <c r="G13">
-        <v>0.7497090598911992</v>
+        <v>0.5423624999999999</v>
       </c>
       <c r="H13">
-        <v>2.259105566617599</v>
+        <v>3.286662500000002</v>
       </c>
       <c r="I13">
-        <v>0.8239645196288005</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J13">
-        <v>1.780130991308805</v>
+        <v>2.427662499999996</v>
       </c>
       <c r="K13">
-        <v>0.5666026567680008</v>
+        <v>0.28</v>
       </c>
       <c r="L13">
-        <v>1.576721639014405</v>
+        <v>2.056756249999999</v>
       </c>
       <c r="M13">
-        <v>1.576721639014405</v>
+        <v>2.056756249999999</v>
       </c>
       <c r="N13">
-        <v>1.301050779306669</v>
+        <v>1.551958333333332</v>
       </c>
       <c r="O13">
-        <v>1.240015311598937</v>
+        <v>1.464504166666666</v>
       </c>
       <c r="P13">
-        <v>1.240015311598937</v>
+        <v>1.464504166666665</v>
       </c>
       <c r="Q13">
-        <v>1.071662147891203</v>
+        <v>1.168378124999999</v>
       </c>
       <c r="R13">
-        <v>1.071662147891203</v>
+        <v>1.168378124999999</v>
       </c>
       <c r="S13">
-        <v>1.258804180155735</v>
+        <v>1.485422916666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1341,55 +1344,55 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9861578971481871</v>
+        <v>0.5666026567680008</v>
       </c>
       <c r="D14">
-        <v>0.991330660872044</v>
+        <v>1.780130991308805</v>
       </c>
       <c r="E14">
-        <v>0.9881494912983576</v>
+        <v>1.373312286720004</v>
       </c>
       <c r="F14">
-        <v>0.9861578971481871</v>
+        <v>0.5666026567680008</v>
       </c>
       <c r="G14">
-        <v>0.9890972860804736</v>
+        <v>0.7497090598911992</v>
       </c>
       <c r="H14">
-        <v>0.9890787327105353</v>
+        <v>2.259105566617599</v>
       </c>
       <c r="I14">
-        <v>0.9863806546095574</v>
+        <v>0.8239645196288005</v>
       </c>
       <c r="J14">
-        <v>0.991330660872044</v>
+        <v>1.780130991308805</v>
       </c>
       <c r="K14">
-        <v>0.9861578971481871</v>
+        <v>0.5666026567680008</v>
       </c>
       <c r="L14">
-        <v>0.9897400760852009</v>
+        <v>1.576721639014405</v>
       </c>
       <c r="M14">
-        <v>0.9897400760852009</v>
+        <v>1.576721639014405</v>
       </c>
       <c r="N14">
-        <v>0.9895258127502918</v>
+        <v>1.301050779306669</v>
       </c>
       <c r="O14">
-        <v>0.9885460164395297</v>
+        <v>1.240015311598937</v>
       </c>
       <c r="P14">
-        <v>0.9885460164395296</v>
+        <v>1.240015311598937</v>
       </c>
       <c r="Q14">
-        <v>0.9879489866166939</v>
+        <v>1.071662147891203</v>
       </c>
       <c r="R14">
-        <v>0.9879489866166939</v>
+        <v>1.071662147891203</v>
       </c>
       <c r="S14">
-        <v>0.9883657871198591</v>
+        <v>1.258804180155735</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1400,55 +1403,55 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9942783707768669</v>
+        <v>0.9861578971481871</v>
       </c>
       <c r="D15">
-        <v>0.9876431694675819</v>
+        <v>0.991330660872044</v>
       </c>
       <c r="E15">
-        <v>0.9801133740497162</v>
+        <v>0.9881494912983576</v>
       </c>
       <c r="F15">
-        <v>0.9942783707768669</v>
+        <v>0.9861578971481871</v>
       </c>
       <c r="G15">
-        <v>0.9881620024722707</v>
+        <v>0.9890972860804736</v>
       </c>
       <c r="H15">
-        <v>0.9631200627381333</v>
+        <v>0.9890787327105353</v>
       </c>
       <c r="I15">
-        <v>0.9859554117093244</v>
+        <v>0.9863806546095574</v>
       </c>
       <c r="J15">
-        <v>0.9876431694675819</v>
+        <v>0.991330660872044</v>
       </c>
       <c r="K15">
-        <v>0.9942783707768669</v>
+        <v>0.9861578971481871</v>
       </c>
       <c r="L15">
-        <v>0.9838782717586491</v>
+        <v>0.9897400760852009</v>
       </c>
       <c r="M15">
-        <v>0.9838782717586491</v>
+        <v>0.9897400760852009</v>
       </c>
       <c r="N15">
-        <v>0.9853061819965229</v>
+        <v>0.9895258127502918</v>
       </c>
       <c r="O15">
-        <v>0.9873449714313883</v>
+        <v>0.9885460164395297</v>
       </c>
       <c r="P15">
-        <v>0.9873449714313883</v>
+        <v>0.9885460164395296</v>
       </c>
       <c r="Q15">
-        <v>0.989078321267758</v>
+        <v>0.9879489866166939</v>
       </c>
       <c r="R15">
-        <v>0.989078321267758</v>
+        <v>0.9879489866166939</v>
       </c>
       <c r="S15">
-        <v>0.9832120652023155</v>
+        <v>0.9883657871198591</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1459,55 +1462,55 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8860629072976454</v>
+        <v>0.9942783707768669</v>
       </c>
       <c r="D16">
-        <v>0.9195826496995643</v>
+        <v>0.9876431694675819</v>
       </c>
       <c r="E16">
-        <v>0.9992419429536736</v>
+        <v>0.9801133740497162</v>
       </c>
       <c r="F16">
-        <v>0.8860629072976454</v>
+        <v>0.9942783707768669</v>
       </c>
       <c r="G16">
-        <v>1.002388221945608</v>
+        <v>0.9881620024722707</v>
       </c>
       <c r="H16">
-        <v>0.8832321072097604</v>
+        <v>0.9631200627381333</v>
       </c>
       <c r="I16">
-        <v>0.9609057520287752</v>
+        <v>0.9859554117093244</v>
       </c>
       <c r="J16">
-        <v>0.9195826496995643</v>
+        <v>0.9876431694675819</v>
       </c>
       <c r="K16">
-        <v>0.8860629072976454</v>
+        <v>0.9942783707768669</v>
       </c>
       <c r="L16">
-        <v>0.959412296326619</v>
+        <v>0.9838782717586491</v>
       </c>
       <c r="M16">
-        <v>0.959412296326619</v>
+        <v>0.9838782717586491</v>
       </c>
       <c r="N16">
-        <v>0.9737376048662819</v>
+        <v>0.9853061819965229</v>
       </c>
       <c r="O16">
-        <v>0.9349624999836278</v>
+        <v>0.9873449714313883</v>
       </c>
       <c r="P16">
-        <v>0.9349624999836278</v>
+        <v>0.9873449714313883</v>
       </c>
       <c r="Q16">
-        <v>0.9227376018121322</v>
+        <v>0.989078321267758</v>
       </c>
       <c r="R16">
-        <v>0.9227376018121322</v>
+        <v>0.989078321267758</v>
       </c>
       <c r="S16">
-        <v>0.9419022635225044</v>
+        <v>0.9832120652023155</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1518,55 +1521,55 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9878319719338172</v>
+        <v>0.8860629072976454</v>
       </c>
       <c r="D17">
-        <v>0.9960199260321305</v>
+        <v>0.9195826496995643</v>
       </c>
       <c r="E17">
-        <v>0.9937336799453818</v>
+        <v>0.9992419429536736</v>
       </c>
       <c r="F17">
-        <v>0.9878319719338172</v>
+        <v>0.8860629072976454</v>
       </c>
       <c r="G17">
-        <v>0.9819960938334324</v>
+        <v>1.002388221945608</v>
       </c>
       <c r="H17">
-        <v>1.021570665469631</v>
+        <v>0.8832321072097604</v>
       </c>
       <c r="I17">
-        <v>0.9830775699248333</v>
+        <v>0.9609057520287752</v>
       </c>
       <c r="J17">
-        <v>0.9960199260321305</v>
+        <v>0.9195826496995643</v>
       </c>
       <c r="K17">
-        <v>0.9878319719338172</v>
+        <v>0.8860629072976454</v>
       </c>
       <c r="L17">
-        <v>0.9948768029887561</v>
+        <v>0.959412296326619</v>
       </c>
       <c r="M17">
-        <v>0.9948768029887561</v>
+        <v>0.959412296326619</v>
       </c>
       <c r="N17">
-        <v>0.9905832332703149</v>
+        <v>0.9737376048662819</v>
       </c>
       <c r="O17">
-        <v>0.9925285259704432</v>
+        <v>0.9349624999836278</v>
       </c>
       <c r="P17">
-        <v>0.9925285259704433</v>
+        <v>0.9349624999836278</v>
       </c>
       <c r="Q17">
-        <v>0.9913543874612868</v>
+        <v>0.9227376018121322</v>
       </c>
       <c r="R17">
-        <v>0.9913543874612868</v>
+        <v>0.9227376018121322</v>
       </c>
       <c r="S17">
-        <v>0.9940383178565377</v>
+        <v>0.9419022635225044</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1577,55 +1580,55 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.070216060159998</v>
+        <v>0.9878319719338172</v>
       </c>
       <c r="D18">
-        <v>0.98413780131937</v>
+        <v>0.9960199260321305</v>
       </c>
       <c r="E18">
-        <v>1.006090906478078</v>
+        <v>0.9937336799453818</v>
       </c>
       <c r="F18">
-        <v>1.070216060159998</v>
+        <v>0.9878319719338172</v>
       </c>
       <c r="G18">
-        <v>0.9570906264065357</v>
+        <v>0.9819960938334324</v>
       </c>
       <c r="H18">
-        <v>1.045192667461415</v>
+        <v>1.021570665469631</v>
       </c>
       <c r="I18">
-        <v>0.9817945875054453</v>
+        <v>0.9830775699248333</v>
       </c>
       <c r="J18">
-        <v>0.98413780131937</v>
+        <v>0.9960199260321305</v>
       </c>
       <c r="K18">
-        <v>1.070216060159998</v>
+        <v>0.9878319719338172</v>
       </c>
       <c r="L18">
-        <v>0.9951143538987242</v>
+        <v>0.9948768029887561</v>
       </c>
       <c r="M18">
-        <v>0.9951143538987242</v>
+        <v>0.9948768029887561</v>
       </c>
       <c r="N18">
-        <v>0.9824397780679947</v>
+        <v>0.9905832332703149</v>
       </c>
       <c r="O18">
-        <v>1.020148255985815</v>
+        <v>0.9925285259704432</v>
       </c>
       <c r="P18">
-        <v>1.020148255985815</v>
+        <v>0.9925285259704433</v>
       </c>
       <c r="Q18">
-        <v>1.032665207029361</v>
+        <v>0.9913543874612868</v>
       </c>
       <c r="R18">
-        <v>1.032665207029361</v>
+        <v>0.9913543874612868</v>
       </c>
       <c r="S18">
-        <v>1.00742044155514</v>
+        <v>0.9940383178565377</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1636,55 +1639,55 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.108804356521749</v>
+        <v>1.070216060159998</v>
       </c>
       <c r="D19">
-        <v>0.9611153249721023</v>
+        <v>0.98413780131937</v>
       </c>
       <c r="E19">
-        <v>1.070360144369533</v>
+        <v>1.006090906478078</v>
       </c>
       <c r="F19">
-        <v>1.108804356521749</v>
+        <v>1.070216060159998</v>
       </c>
       <c r="G19">
-        <v>0.9230693031564946</v>
+        <v>0.9570906264065357</v>
       </c>
       <c r="H19">
-        <v>1.077596577596761</v>
+        <v>1.045192667461415</v>
       </c>
       <c r="I19">
-        <v>0.9517074183804983</v>
+        <v>0.9817945875054453</v>
       </c>
       <c r="J19">
-        <v>0.9611153249721023</v>
+        <v>0.98413780131937</v>
       </c>
       <c r="K19">
-        <v>1.108804356521749</v>
+        <v>1.070216060159998</v>
       </c>
       <c r="L19">
-        <v>1.015737734670818</v>
+        <v>0.9951143538987242</v>
       </c>
       <c r="M19">
-        <v>1.015737734670818</v>
+        <v>0.9951143538987242</v>
       </c>
       <c r="N19">
-        <v>0.9848482574993765</v>
+        <v>0.9824397780679947</v>
       </c>
       <c r="O19">
-        <v>1.046759941954462</v>
+        <v>1.020148255985815</v>
       </c>
       <c r="P19">
-        <v>1.046759941954462</v>
+        <v>1.020148255985815</v>
       </c>
       <c r="Q19">
-        <v>1.062271045596284</v>
+        <v>1.032665207029361</v>
       </c>
       <c r="R19">
-        <v>1.062271045596284</v>
+        <v>1.032665207029361</v>
       </c>
       <c r="S19">
-        <v>1.015442187499523</v>
+        <v>1.00742044155514</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1695,55 +1698,55 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.087989662643512</v>
+        <v>1.108804356521749</v>
       </c>
       <c r="D20">
-        <v>1.102057235662747</v>
+        <v>0.9611153249721023</v>
       </c>
       <c r="E20">
-        <v>1.076572609969958</v>
+        <v>1.070360144369533</v>
       </c>
       <c r="F20">
-        <v>1.087989662643512</v>
+        <v>1.108804356521749</v>
       </c>
       <c r="G20">
-        <v>0.8772366511372948</v>
+        <v>0.9230693031564946</v>
       </c>
       <c r="H20">
-        <v>1.221688998630534</v>
+        <v>1.077596577596761</v>
       </c>
       <c r="I20">
-        <v>0.9530429449168647</v>
+        <v>0.9517074183804983</v>
       </c>
       <c r="J20">
-        <v>1.102057235662747</v>
+        <v>0.9611153249721023</v>
       </c>
       <c r="K20">
-        <v>1.087989662643512</v>
+        <v>1.108804356521749</v>
       </c>
       <c r="L20">
-        <v>1.089314922816353</v>
+        <v>1.015737734670818</v>
       </c>
       <c r="M20">
-        <v>1.089314922816353</v>
+        <v>1.015737734670818</v>
       </c>
       <c r="N20">
-        <v>1.01862216559</v>
+        <v>0.9848482574993765</v>
       </c>
       <c r="O20">
-        <v>1.088873169425406</v>
+        <v>1.046759941954462</v>
       </c>
       <c r="P20">
-        <v>1.088873169425406</v>
+        <v>1.046759941954462</v>
       </c>
       <c r="Q20">
-        <v>1.088652292729932</v>
+        <v>1.062271045596284</v>
       </c>
       <c r="R20">
-        <v>1.088652292729932</v>
+        <v>1.062271045596284</v>
       </c>
       <c r="S20">
-        <v>1.053098017160152</v>
+        <v>1.015442187499523</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1754,55 +1757,55 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9806053592831296</v>
+        <v>1.087989662643512</v>
       </c>
       <c r="D21">
-        <v>1.009568442564327</v>
+        <v>1.102057235662747</v>
       </c>
       <c r="E21">
-        <v>0.9901523392524386</v>
+        <v>1.076572609969958</v>
       </c>
       <c r="F21">
-        <v>0.9806053592831296</v>
+        <v>1.087989662643512</v>
       </c>
       <c r="G21">
-        <v>0.9829714191160113</v>
+        <v>0.8772366511372948</v>
       </c>
       <c r="H21">
-        <v>1.010652762896517</v>
+        <v>1.221688998630534</v>
       </c>
       <c r="I21">
-        <v>0.9787293142996965</v>
+        <v>0.9530429449168647</v>
       </c>
       <c r="J21">
-        <v>1.009568442564327</v>
+        <v>1.102057235662747</v>
       </c>
       <c r="K21">
-        <v>0.9806053592831296</v>
+        <v>1.087989662643512</v>
       </c>
       <c r="L21">
-        <v>0.9998603909083827</v>
+        <v>1.089314922816353</v>
       </c>
       <c r="M21">
-        <v>0.9998603909083827</v>
+        <v>1.089314922816353</v>
       </c>
       <c r="N21">
-        <v>0.994230733644259</v>
+        <v>1.01862216559</v>
       </c>
       <c r="O21">
-        <v>0.9934420470332984</v>
+        <v>1.088873169425406</v>
       </c>
       <c r="P21">
-        <v>0.9934420470332984</v>
+        <v>1.088873169425406</v>
       </c>
       <c r="Q21">
-        <v>0.9902328750957562</v>
+        <v>1.088652292729932</v>
       </c>
       <c r="R21">
-        <v>0.9902328750957562</v>
+        <v>1.088652292729932</v>
       </c>
       <c r="S21">
-        <v>0.9921132729020199</v>
+        <v>1.053098017160152</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1813,55 +1816,55 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9735720790200305</v>
+        <v>0.9806053592831296</v>
       </c>
       <c r="D22">
-        <v>1.056976745384705</v>
+        <v>1.009568442564327</v>
       </c>
       <c r="E22">
-        <v>1.023661049767922</v>
+        <v>0.9901523392524386</v>
       </c>
       <c r="F22">
-        <v>0.9735720790200305</v>
+        <v>0.9806053592831296</v>
       </c>
       <c r="G22">
-        <v>0.9620270649356009</v>
+        <v>0.9829714191160113</v>
       </c>
       <c r="H22">
-        <v>1.105742377565953</v>
+        <v>1.010652762896517</v>
       </c>
       <c r="I22">
-        <v>0.9621276931713832</v>
+        <v>0.9787293142996965</v>
       </c>
       <c r="J22">
-        <v>1.056976745384705</v>
+        <v>1.009568442564327</v>
       </c>
       <c r="K22">
-        <v>0.9735720790200305</v>
+        <v>0.9806053592831296</v>
       </c>
       <c r="L22">
-        <v>1.040318897576313</v>
+        <v>0.9998603909083827</v>
       </c>
       <c r="M22">
-        <v>1.040318897576313</v>
+        <v>0.9998603909083827</v>
       </c>
       <c r="N22">
-        <v>1.014221620029409</v>
+        <v>0.994230733644259</v>
       </c>
       <c r="O22">
-        <v>1.018069958057552</v>
+        <v>0.9934420470332984</v>
       </c>
       <c r="P22">
-        <v>1.018069958057553</v>
+        <v>0.9934420470332984</v>
       </c>
       <c r="Q22">
-        <v>1.006945488298172</v>
+        <v>0.9902328750957562</v>
       </c>
       <c r="R22">
-        <v>1.006945488298172</v>
+        <v>0.9902328750957562</v>
       </c>
       <c r="S22">
-        <v>1.014017834974266</v>
+        <v>0.9921132729020199</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1872,55 +1875,55 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.887390366980169</v>
+        <v>0.9735720790200305</v>
       </c>
       <c r="D23">
-        <v>0.9532327698696271</v>
+        <v>1.056976745384705</v>
       </c>
       <c r="E23">
-        <v>0.996055099140346</v>
+        <v>1.023661049767922</v>
       </c>
       <c r="F23">
-        <v>0.887390366980169</v>
+        <v>0.9735720790200305</v>
       </c>
       <c r="G23">
-        <v>0.9909286627026923</v>
+        <v>0.9620270649356009</v>
       </c>
       <c r="H23">
-        <v>0.9075454828797571</v>
+        <v>1.105742377565953</v>
       </c>
       <c r="I23">
-        <v>0.9584804246785812</v>
+        <v>0.9621276931713832</v>
       </c>
       <c r="J23">
-        <v>0.9532327698696271</v>
+        <v>1.056976745384705</v>
       </c>
       <c r="K23">
-        <v>0.887390366980169</v>
+        <v>0.9735720790200305</v>
       </c>
       <c r="L23">
-        <v>0.9746439345049865</v>
+        <v>1.040318897576313</v>
       </c>
       <c r="M23">
-        <v>0.9746439345049865</v>
+        <v>1.040318897576313</v>
       </c>
       <c r="N23">
-        <v>0.9800721772375551</v>
+        <v>1.014221620029409</v>
       </c>
       <c r="O23">
-        <v>0.945559411996714</v>
+        <v>1.018069958057552</v>
       </c>
       <c r="P23">
-        <v>0.945559411996714</v>
+        <v>1.018069958057553</v>
       </c>
       <c r="Q23">
-        <v>0.9310171507425777</v>
+        <v>1.006945488298172</v>
       </c>
       <c r="R23">
-        <v>0.9310171507425777</v>
+        <v>1.006945488298172</v>
       </c>
       <c r="S23">
-        <v>0.9489388010418621</v>
+        <v>1.014017834974266</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1931,55 +1934,55 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.052965860082682</v>
+        <v>0.887390366980169</v>
       </c>
       <c r="D24">
-        <v>1.31423456229019</v>
+        <v>0.9532327698696271</v>
       </c>
       <c r="E24">
-        <v>1.054890976075339</v>
+        <v>0.996055099140346</v>
       </c>
       <c r="F24">
-        <v>1.052965860082682</v>
+        <v>0.887390366980169</v>
       </c>
       <c r="G24">
-        <v>0.8543947773876168</v>
+        <v>0.9909286627026923</v>
       </c>
       <c r="H24">
-        <v>1.5464281712299</v>
+        <v>0.9075454828797571</v>
       </c>
       <c r="I24">
-        <v>0.9140715027345767</v>
+        <v>0.9584804246785812</v>
       </c>
       <c r="J24">
-        <v>1.31423456229019</v>
+        <v>0.9532327698696271</v>
       </c>
       <c r="K24">
-        <v>1.052965860082682</v>
+        <v>0.887390366980169</v>
       </c>
       <c r="L24">
-        <v>1.184562769182764</v>
+        <v>0.9746439345049865</v>
       </c>
       <c r="M24">
-        <v>1.184562769182764</v>
+        <v>0.9746439345049865</v>
       </c>
       <c r="N24">
-        <v>1.074506771917715</v>
+        <v>0.9800721772375551</v>
       </c>
       <c r="O24">
-        <v>1.14069713281607</v>
+        <v>0.945559411996714</v>
       </c>
       <c r="P24">
-        <v>1.14069713281607</v>
+        <v>0.945559411996714</v>
       </c>
       <c r="Q24">
-        <v>1.118764314632723</v>
+        <v>0.9310171507425777</v>
       </c>
       <c r="R24">
-        <v>1.118764314632723</v>
+        <v>0.9310171507425777</v>
       </c>
       <c r="S24">
-        <v>1.122830974966717</v>
+        <v>0.9489388010418621</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1990,55 +1993,55 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.212873811337222</v>
+        <v>1.052965860082682</v>
       </c>
       <c r="D25">
-        <v>0.8960533787877244</v>
+        <v>1.31423456229019</v>
       </c>
       <c r="E25">
-        <v>0.9710423583101827</v>
+        <v>1.054890976075339</v>
       </c>
       <c r="F25">
-        <v>1.212873811337222</v>
+        <v>1.052965860082682</v>
       </c>
       <c r="G25">
-        <v>0.9382823106695662</v>
+        <v>0.8543947773876168</v>
       </c>
       <c r="H25">
-        <v>0.9203325728660898</v>
+        <v>1.5464281712299</v>
       </c>
       <c r="I25">
-        <v>0.9983690683294696</v>
+        <v>0.9140715027345767</v>
       </c>
       <c r="J25">
-        <v>0.8960533787877244</v>
+        <v>1.31423456229019</v>
       </c>
       <c r="K25">
-        <v>1.212873811337222</v>
+        <v>1.052965860082682</v>
       </c>
       <c r="L25">
-        <v>0.9335478685489536</v>
+        <v>1.184562769182764</v>
       </c>
       <c r="M25">
-        <v>0.9335478685489536</v>
+        <v>1.184562769182764</v>
       </c>
       <c r="N25">
-        <v>0.9351260159224911</v>
+        <v>1.074506771917715</v>
       </c>
       <c r="O25">
-        <v>1.026656516145043</v>
+        <v>1.14069713281607</v>
       </c>
       <c r="P25">
-        <v>1.026656516145043</v>
+        <v>1.14069713281607</v>
       </c>
       <c r="Q25">
-        <v>1.073210839943088</v>
+        <v>1.118764314632723</v>
       </c>
       <c r="R25">
-        <v>1.073210839943088</v>
+        <v>1.118764314632723</v>
       </c>
       <c r="S25">
-        <v>0.9894922500500424</v>
+        <v>1.122830974966717</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2049,55 +2052,55 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9824780011373566</v>
+        <v>1.212873811337222</v>
       </c>
       <c r="D26">
-        <v>0.9927958730525275</v>
+        <v>0.8960533787877244</v>
       </c>
       <c r="E26">
-        <v>0.9894208131145997</v>
+        <v>0.9710423583101827</v>
       </c>
       <c r="F26">
-        <v>0.9824780011373566</v>
+        <v>1.212873811337222</v>
       </c>
       <c r="G26">
-        <v>0.9895365487802976</v>
+        <v>0.9382823106695662</v>
       </c>
       <c r="H26">
-        <v>0.9915644180772154</v>
+        <v>0.9203325728660898</v>
       </c>
       <c r="I26">
-        <v>0.9863893389309146</v>
+        <v>0.9983690683294696</v>
       </c>
       <c r="J26">
-        <v>0.9927958730525275</v>
+        <v>0.8960533787877244</v>
       </c>
       <c r="K26">
-        <v>0.9824780011373566</v>
+        <v>1.212873811337222</v>
       </c>
       <c r="L26">
-        <v>0.9911083430835637</v>
+        <v>0.9335478685489536</v>
       </c>
       <c r="M26">
-        <v>0.9911083430835637</v>
+        <v>0.9335478685489536</v>
       </c>
       <c r="N26">
-        <v>0.9905844116491416</v>
+        <v>0.9351260159224911</v>
       </c>
       <c r="O26">
-        <v>0.988231562434828</v>
+        <v>1.026656516145043</v>
       </c>
       <c r="P26">
-        <v>0.9882315624348279</v>
+        <v>1.026656516145043</v>
       </c>
       <c r="Q26">
-        <v>0.9867931721104601</v>
+        <v>1.073210839943088</v>
       </c>
       <c r="R26">
-        <v>0.9867931721104601</v>
+        <v>1.073210839943088</v>
       </c>
       <c r="S26">
-        <v>0.9886974988488184</v>
+        <v>0.9894922500500424</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2108,55 +2111,55 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.264753133497114</v>
+        <v>0.9824780011373566</v>
       </c>
       <c r="D27">
-        <v>0.9281565378210913</v>
+        <v>0.9927958730525275</v>
       </c>
       <c r="E27">
-        <v>0.9408322291222103</v>
+        <v>0.9894208131145997</v>
       </c>
       <c r="F27">
-        <v>1.264753133497114</v>
+        <v>0.9824780011373566</v>
       </c>
       <c r="G27">
-        <v>0.9810445954262085</v>
+        <v>0.9895365487802976</v>
       </c>
       <c r="H27">
-        <v>0.7879520986063648</v>
+        <v>0.9915644180772154</v>
       </c>
       <c r="I27">
-        <v>0.9816434580486129</v>
+        <v>0.9863893389309146</v>
       </c>
       <c r="J27">
-        <v>0.9281565378210913</v>
+        <v>0.9927958730525275</v>
       </c>
       <c r="K27">
-        <v>1.264753133497114</v>
+        <v>0.9824780011373566</v>
       </c>
       <c r="L27">
-        <v>0.9344943834716508</v>
+        <v>0.9911083430835637</v>
       </c>
       <c r="M27">
-        <v>0.9344943834716508</v>
+        <v>0.9911083430835637</v>
       </c>
       <c r="N27">
-        <v>0.9500111207898367</v>
+        <v>0.9905844116491416</v>
       </c>
       <c r="O27">
-        <v>1.044580633480139</v>
+        <v>0.988231562434828</v>
       </c>
       <c r="P27">
-        <v>1.044580633480139</v>
+        <v>0.9882315624348279</v>
       </c>
       <c r="Q27">
-        <v>1.099623758484383</v>
+        <v>0.9867931721104601</v>
       </c>
       <c r="R27">
-        <v>1.099623758484383</v>
+        <v>0.9867931721104601</v>
       </c>
       <c r="S27">
-        <v>0.9807303420869337</v>
+        <v>0.9886974988488184</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2167,55 +2170,55 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.415321950683849</v>
+        <v>1.264753133497114</v>
       </c>
       <c r="D28">
-        <v>0.8790656441297383</v>
+        <v>0.9281565378210913</v>
       </c>
       <c r="E28">
-        <v>0.9061797975457503</v>
+        <v>0.9408322291222103</v>
       </c>
       <c r="F28">
-        <v>1.415321950683849</v>
+        <v>1.264753133497114</v>
       </c>
       <c r="G28">
-        <v>0.9742900067646071</v>
+        <v>0.9810445954262085</v>
       </c>
       <c r="H28">
-        <v>0.7188995425101661</v>
+        <v>0.7879520986063648</v>
       </c>
       <c r="I28">
-        <v>0.967479036298218</v>
+        <v>0.9816434580486129</v>
       </c>
       <c r="J28">
-        <v>0.8790656441297383</v>
+        <v>0.9281565378210913</v>
       </c>
       <c r="K28">
-        <v>1.415321950683849</v>
+        <v>1.264753133497114</v>
       </c>
       <c r="L28">
-        <v>0.8926227208377443</v>
+        <v>0.9344943834716508</v>
       </c>
       <c r="M28">
-        <v>0.8926227208377443</v>
+        <v>0.9344943834716508</v>
       </c>
       <c r="N28">
-        <v>0.9198451494800319</v>
+        <v>0.9500111207898367</v>
       </c>
       <c r="O28">
-        <v>1.066855797453113</v>
+        <v>1.044580633480139</v>
       </c>
       <c r="P28">
-        <v>1.066855797453113</v>
+        <v>1.044580633480139</v>
       </c>
       <c r="Q28">
-        <v>1.153972335760796</v>
+        <v>1.099623758484383</v>
       </c>
       <c r="R28">
-        <v>1.153972335760796</v>
+        <v>1.099623758484383</v>
       </c>
       <c r="S28">
-        <v>0.9768726629887214</v>
+        <v>0.9807303420869337</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2226,55 +2229,55 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.199752887423549</v>
+        <v>1.415321950683849</v>
       </c>
       <c r="D29">
-        <v>0.8967490658177202</v>
+        <v>0.8790656441297383</v>
       </c>
       <c r="E29">
-        <v>0.9712628332071018</v>
+        <v>0.9061797975457503</v>
       </c>
       <c r="F29">
-        <v>1.199752887423549</v>
+        <v>1.415321950683849</v>
       </c>
       <c r="G29">
-        <v>0.9392527213188717</v>
+        <v>0.9742900067646071</v>
       </c>
       <c r="H29">
-        <v>0.9211572464096321</v>
+        <v>0.7188995425101661</v>
       </c>
       <c r="I29">
-        <v>0.9984716113967174</v>
+        <v>0.967479036298218</v>
       </c>
       <c r="J29">
-        <v>0.8967490658177202</v>
+        <v>0.8790656441297383</v>
       </c>
       <c r="K29">
-        <v>1.199752887423549</v>
+        <v>1.415321950683849</v>
       </c>
       <c r="L29">
-        <v>0.934005949512411</v>
+        <v>0.8926227208377443</v>
       </c>
       <c r="M29">
-        <v>0.934005949512411</v>
+        <v>0.8926227208377443</v>
       </c>
       <c r="N29">
-        <v>0.9357548734478979</v>
+        <v>0.9198451494800319</v>
       </c>
       <c r="O29">
-        <v>1.022588262149457</v>
+        <v>1.066855797453113</v>
       </c>
       <c r="P29">
-        <v>1.022588262149457</v>
+        <v>1.066855797453113</v>
       </c>
       <c r="Q29">
-        <v>1.06687941846798</v>
+        <v>1.153972335760796</v>
       </c>
       <c r="R29">
-        <v>1.06687941846798</v>
+        <v>1.153972335760796</v>
       </c>
       <c r="S29">
-        <v>0.9877743942622654</v>
+        <v>0.9768726629887214</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2285,55 +2288,55 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.9810816259173422</v>
+        <v>1.199752887423549</v>
       </c>
       <c r="D30">
-        <v>0.9930098492174916</v>
+        <v>0.8967490658177202</v>
       </c>
       <c r="E30">
-        <v>0.9895786499228507</v>
+        <v>0.9712628332071018</v>
       </c>
       <c r="F30">
-        <v>0.9810816259173422</v>
+        <v>1.199752887423549</v>
       </c>
       <c r="G30">
-        <v>0.9897392370804829</v>
+        <v>0.9392527213188717</v>
       </c>
       <c r="H30">
-        <v>0.9918307482136656</v>
+        <v>0.9211572464096321</v>
       </c>
       <c r="I30">
-        <v>0.9864234239910594</v>
+        <v>0.9984716113967174</v>
       </c>
       <c r="J30">
-        <v>0.9930098492174916</v>
+        <v>0.8967490658177202</v>
       </c>
       <c r="K30">
-        <v>0.9810816259173422</v>
+        <v>1.199752887423549</v>
       </c>
       <c r="L30">
-        <v>0.9912942495701711</v>
+        <v>0.934005949512411</v>
       </c>
       <c r="M30">
-        <v>0.9912942495701711</v>
+        <v>0.934005949512411</v>
       </c>
       <c r="N30">
-        <v>0.9907759120736084</v>
+        <v>0.9357548734478979</v>
       </c>
       <c r="O30">
-        <v>0.9878900416858948</v>
+        <v>1.022588262149457</v>
       </c>
       <c r="P30">
-        <v>0.9878900416858949</v>
+        <v>1.022588262149457</v>
       </c>
       <c r="Q30">
-        <v>0.9861879377437567</v>
+        <v>1.06687941846798</v>
       </c>
       <c r="R30">
-        <v>0.9861879377437567</v>
+        <v>1.06687941846798</v>
       </c>
       <c r="S30">
-        <v>0.9886105890571488</v>
+        <v>0.9877743942622654</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2344,55 +2347,55 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.249266160139245</v>
+        <v>0.9810816259173422</v>
       </c>
       <c r="D31">
-        <v>0.9291278913806447</v>
+        <v>0.9930098492174916</v>
       </c>
       <c r="E31">
-        <v>0.941004804577703</v>
+        <v>0.9895786499228507</v>
       </c>
       <c r="F31">
-        <v>1.249266160139245</v>
+        <v>0.9810816259173422</v>
       </c>
       <c r="G31">
-        <v>0.9820095948983734</v>
+        <v>0.9897392370804829</v>
       </c>
       <c r="H31">
-        <v>0.7901332807239542</v>
+        <v>0.9918307482136656</v>
       </c>
       <c r="I31">
-        <v>0.9817690107593251</v>
+        <v>0.9864234239910594</v>
       </c>
       <c r="J31">
-        <v>0.9291278913806447</v>
+        <v>0.9930098492174916</v>
       </c>
       <c r="K31">
-        <v>1.249266160139245</v>
+        <v>0.9810816259173422</v>
       </c>
       <c r="L31">
-        <v>0.9350663479791739</v>
+        <v>0.9912942495701711</v>
       </c>
       <c r="M31">
-        <v>0.9350663479791739</v>
+        <v>0.9912942495701711</v>
       </c>
       <c r="N31">
-        <v>0.9507140969522404</v>
+        <v>0.9907759120736084</v>
       </c>
       <c r="O31">
-        <v>1.039799618699198</v>
+        <v>0.9878900416858948</v>
       </c>
       <c r="P31">
-        <v>1.039799618699198</v>
+        <v>0.9878900416858949</v>
       </c>
       <c r="Q31">
-        <v>1.092166254059209</v>
+        <v>0.9861879377437567</v>
       </c>
       <c r="R31">
-        <v>1.092166254059209</v>
+        <v>0.9861879377437567</v>
       </c>
       <c r="S31">
-        <v>0.9788851237465409</v>
+        <v>0.9886105890571488</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2403,55 +2406,55 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.393193131411076</v>
+        <v>1.249266160139245</v>
       </c>
       <c r="D32">
-        <v>0.8805659874703635</v>
+        <v>0.9291278913806447</v>
       </c>
       <c r="E32">
-        <v>0.9068352311029096</v>
+        <v>0.941004804577703</v>
       </c>
       <c r="F32">
-        <v>1.393193131411076</v>
+        <v>1.249266160139245</v>
       </c>
       <c r="G32">
-        <v>0.9759248753684724</v>
+        <v>0.9820095948983734</v>
       </c>
       <c r="H32">
-        <v>0.7206852398592209</v>
+        <v>0.7901332807239542</v>
       </c>
       <c r="I32">
-        <v>0.9688421845336889</v>
+        <v>0.9817690107593251</v>
       </c>
       <c r="J32">
-        <v>0.8805659874703635</v>
+        <v>0.9291278913806447</v>
       </c>
       <c r="K32">
-        <v>1.393193131411076</v>
+        <v>1.249266160139245</v>
       </c>
       <c r="L32">
-        <v>0.8937006092866366</v>
+        <v>0.9350663479791739</v>
       </c>
       <c r="M32">
-        <v>0.8937006092866366</v>
+        <v>0.9350663479791739</v>
       </c>
       <c r="N32">
-        <v>0.9211086979805819</v>
+        <v>0.9507140969522404</v>
       </c>
       <c r="O32">
-        <v>1.06019811666145</v>
+        <v>1.039799618699198</v>
       </c>
       <c r="P32">
-        <v>1.06019811666145</v>
+        <v>1.039799618699198</v>
       </c>
       <c r="Q32">
-        <v>1.143446870348856</v>
+        <v>1.092166254059209</v>
       </c>
       <c r="R32">
-        <v>1.143446870348856</v>
+        <v>1.092166254059209</v>
       </c>
       <c r="S32">
-        <v>0.9743411082909553</v>
+        <v>0.9788851237465409</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2462,55 +2465,55 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.157019681759262</v>
+        <v>1.393193131411076</v>
       </c>
       <c r="D33">
-        <v>0.8996203835786308</v>
+        <v>0.8805659874703635</v>
       </c>
       <c r="E33">
-        <v>0.9718829474849525</v>
+        <v>0.9068352311029096</v>
       </c>
       <c r="F33">
-        <v>1.157019681759262</v>
+        <v>1.393193131411076</v>
       </c>
       <c r="G33">
-        <v>0.9427657866633907</v>
+        <v>0.9759248753684724</v>
       </c>
       <c r="H33">
-        <v>0.9245112325545788</v>
+        <v>0.7206852398592209</v>
       </c>
       <c r="I33">
-        <v>0.9989209884740763</v>
+        <v>0.9688421845336889</v>
       </c>
       <c r="J33">
-        <v>0.8996203835786308</v>
+        <v>0.8805659874703635</v>
       </c>
       <c r="K33">
-        <v>1.157019681759262</v>
+        <v>1.393193131411076</v>
       </c>
       <c r="L33">
-        <v>0.9357516655317917</v>
+        <v>0.8937006092866366</v>
       </c>
       <c r="M33">
-        <v>0.9357516655317917</v>
+        <v>0.8937006092866366</v>
       </c>
       <c r="N33">
-        <v>0.9380897059089914</v>
+        <v>0.9211086979805819</v>
       </c>
       <c r="O33">
-        <v>1.009507670940949</v>
+        <v>1.06019811666145</v>
       </c>
       <c r="P33">
-        <v>1.009507670940949</v>
+        <v>1.06019811666145</v>
       </c>
       <c r="Q33">
-        <v>1.046385673645527</v>
+        <v>1.143446870348856</v>
       </c>
       <c r="R33">
-        <v>1.046385673645527</v>
+        <v>1.143446870348856</v>
       </c>
       <c r="S33">
-        <v>0.9824535034191485</v>
+        <v>0.9743411082909553</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2521,55 +2524,55 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.9764413662253842</v>
+        <v>1.157019681759262</v>
       </c>
       <c r="D34">
-        <v>0.9941022894772832</v>
+        <v>0.8996203835786308</v>
       </c>
       <c r="E34">
-        <v>0.99005146006258</v>
+        <v>0.9718829474849525</v>
       </c>
       <c r="F34">
-        <v>0.9764413662253842</v>
+        <v>1.157019681759262</v>
       </c>
       <c r="G34">
-        <v>0.9902995764582979</v>
+        <v>0.9427657866633907</v>
       </c>
       <c r="H34">
-        <v>0.9929029732878334</v>
+        <v>0.9245112325545788</v>
       </c>
       <c r="I34">
-        <v>0.9864311256078137</v>
+        <v>0.9989209884740763</v>
       </c>
       <c r="J34">
-        <v>0.9941022894772832</v>
+        <v>0.8996203835786308</v>
       </c>
       <c r="K34">
-        <v>0.9764413662253842</v>
+        <v>1.157019681759262</v>
       </c>
       <c r="L34">
-        <v>0.9920768747699316</v>
+        <v>0.9357516655317917</v>
       </c>
       <c r="M34">
-        <v>0.9920768747699316</v>
+        <v>0.9357516655317917</v>
       </c>
       <c r="N34">
-        <v>0.991484441999387</v>
+        <v>0.9380897059089914</v>
       </c>
       <c r="O34">
-        <v>0.9868650385884158</v>
+        <v>1.009507670940949</v>
       </c>
       <c r="P34">
-        <v>0.9868650385884159</v>
+        <v>1.009507670940949</v>
       </c>
       <c r="Q34">
-        <v>0.984259120497658</v>
+        <v>1.046385673645527</v>
       </c>
       <c r="R34">
-        <v>0.984259120497658</v>
+        <v>1.046385673645527</v>
       </c>
       <c r="S34">
-        <v>0.9883714651865322</v>
+        <v>0.9824535034191485</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -2580,55 +2583,55 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.19857264386465</v>
+        <v>0.9764413662253842</v>
       </c>
       <c r="D35">
-        <v>0.9329016322637103</v>
+        <v>0.9941022894772832</v>
       </c>
       <c r="E35">
-        <v>0.9414085194206927</v>
+        <v>0.99005146006258</v>
       </c>
       <c r="F35">
-        <v>1.19857264386465</v>
+        <v>0.9764413662253842</v>
       </c>
       <c r="G35">
-        <v>0.9855445812576468</v>
+        <v>0.9902995764582979</v>
       </c>
       <c r="H35">
-        <v>0.7989894444387329</v>
+        <v>0.9929029732878334</v>
       </c>
       <c r="I35">
-        <v>0.9823823279975381</v>
+        <v>0.9864311256078137</v>
       </c>
       <c r="J35">
-        <v>0.9329016322637103</v>
+        <v>0.9941022894772832</v>
       </c>
       <c r="K35">
-        <v>1.19857264386465</v>
+        <v>0.9764413662253842</v>
       </c>
       <c r="L35">
-        <v>0.9371550758422015</v>
+        <v>0.9920768747699316</v>
       </c>
       <c r="M35">
-        <v>0.9371550758422015</v>
+        <v>0.9920768747699316</v>
       </c>
       <c r="N35">
-        <v>0.9532849109806832</v>
+        <v>0.991484441999387</v>
       </c>
       <c r="O35">
-        <v>1.024294265183018</v>
+        <v>0.9868650385884158</v>
       </c>
       <c r="P35">
-        <v>1.024294265183018</v>
+        <v>0.9868650385884159</v>
       </c>
       <c r="Q35">
-        <v>1.067863859853426</v>
+        <v>0.984259120497658</v>
       </c>
       <c r="R35">
-        <v>1.067863859853426</v>
+        <v>0.984259120497658</v>
       </c>
       <c r="S35">
-        <v>0.9732998582071617</v>
+        <v>0.9883714651865322</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -2639,55 +2642,55 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.320557451329553</v>
+        <v>1.19857264386465</v>
       </c>
       <c r="D36">
-        <v>0.8859755091272864</v>
+        <v>0.9329016322637103</v>
       </c>
       <c r="E36">
-        <v>0.9091303165025626</v>
+        <v>0.9414085194206927</v>
       </c>
       <c r="F36">
-        <v>1.320557451329553</v>
+        <v>1.19857264386465</v>
       </c>
       <c r="G36">
-        <v>0.9819785629511962</v>
+        <v>0.9855445812576468</v>
       </c>
       <c r="H36">
-        <v>0.7284371682593948</v>
+        <v>0.7989894444387329</v>
       </c>
       <c r="I36">
-        <v>0.973860716476097</v>
+        <v>0.9823823279975381</v>
       </c>
       <c r="J36">
-        <v>0.8859755091272864</v>
+        <v>0.9329016322637103</v>
       </c>
       <c r="K36">
-        <v>1.320557451329553</v>
+        <v>1.19857264386465</v>
       </c>
       <c r="L36">
-        <v>0.8975529128149244</v>
+        <v>0.9371550758422015</v>
       </c>
       <c r="M36">
-        <v>0.8975529128149244</v>
+        <v>0.9371550758422015</v>
       </c>
       <c r="N36">
-        <v>0.9256947961936817</v>
+        <v>0.9532849109806832</v>
       </c>
       <c r="O36">
-        <v>1.038554425653134</v>
+        <v>1.024294265183018</v>
       </c>
       <c r="P36">
-        <v>1.038554425653134</v>
+        <v>1.024294265183018</v>
       </c>
       <c r="Q36">
-        <v>1.109055182072239</v>
+        <v>1.067863859853426</v>
       </c>
       <c r="R36">
-        <v>1.109055182072239</v>
+        <v>1.067863859853426</v>
       </c>
       <c r="S36">
-        <v>0.9666566207743483</v>
+        <v>0.9732998582071617</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2698,55 +2701,55 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.214471005479387</v>
+        <v>1.320557451329553</v>
       </c>
       <c r="D37">
-        <v>0.895975128751173</v>
+        <v>0.8859755091272864</v>
       </c>
       <c r="E37">
-        <v>0.9710248114031629</v>
+        <v>0.9091303165025626</v>
       </c>
       <c r="F37">
-        <v>1.214471005479387</v>
+        <v>1.320557451329553</v>
       </c>
       <c r="G37">
-        <v>0.9381624240610965</v>
+        <v>0.9819785629511962</v>
       </c>
       <c r="H37">
-        <v>0.9202355924731163</v>
+        <v>0.7284371682593948</v>
       </c>
       <c r="I37">
-        <v>0.9983535350890107</v>
+        <v>0.973860716476097</v>
       </c>
       <c r="J37">
-        <v>0.895975128751173</v>
+        <v>0.8859755091272864</v>
       </c>
       <c r="K37">
-        <v>1.214471005479387</v>
+        <v>1.320557451329553</v>
       </c>
       <c r="L37">
-        <v>0.933499970077168</v>
+        <v>0.8975529128149244</v>
       </c>
       <c r="M37">
-        <v>0.933499970077168</v>
+        <v>0.8975529128149244</v>
       </c>
       <c r="N37">
-        <v>0.9350541214051442</v>
+        <v>0.9256947961936817</v>
       </c>
       <c r="O37">
-        <v>1.027156981877908</v>
+        <v>1.038554425653134</v>
       </c>
       <c r="P37">
-        <v>1.027156981877908</v>
+        <v>1.038554425653134</v>
       </c>
       <c r="Q37">
-        <v>1.073985487778278</v>
+        <v>1.109055182072239</v>
       </c>
       <c r="R37">
-        <v>1.073985487778278</v>
+        <v>1.109055182072239</v>
       </c>
       <c r="S37">
-        <v>0.9897037495428244</v>
+        <v>0.9666566207743483</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -2757,55 +2760,55 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.9826382437215103</v>
+        <v>1.214471005479387</v>
       </c>
       <c r="D38">
-        <v>0.9927697568549259</v>
+        <v>0.895975128751173</v>
       </c>
       <c r="E38">
-        <v>0.9894137502137792</v>
+        <v>0.9710248114031629</v>
       </c>
       <c r="F38">
-        <v>0.9826382437215103</v>
+        <v>1.214471005479387</v>
       </c>
       <c r="G38">
-        <v>0.9895070463101058</v>
+        <v>0.9381624240610965</v>
       </c>
       <c r="H38">
-        <v>0.9915309451433727</v>
+        <v>0.9202355924731163</v>
       </c>
       <c r="I38">
-        <v>0.9863828744121089</v>
+        <v>0.9983535350890107</v>
       </c>
       <c r="J38">
-        <v>0.9927697568549259</v>
+        <v>0.895975128751173</v>
       </c>
       <c r="K38">
-        <v>0.9826382437215103</v>
+        <v>1.214471005479387</v>
       </c>
       <c r="L38">
-        <v>0.9910917535343525</v>
+        <v>0.933499970077168</v>
       </c>
       <c r="M38">
-        <v>0.9910917535343525</v>
+        <v>0.933499970077168</v>
       </c>
       <c r="N38">
-        <v>0.9905635177929369</v>
+        <v>0.9350541214051442</v>
       </c>
       <c r="O38">
-        <v>0.9882739169300718</v>
+        <v>1.027156981877908</v>
       </c>
       <c r="P38">
-        <v>0.9882739169300718</v>
+        <v>1.027156981877908</v>
       </c>
       <c r="Q38">
-        <v>0.9868649986279314</v>
+        <v>1.073985487778278</v>
       </c>
       <c r="R38">
-        <v>0.9868649986279314</v>
+        <v>1.073985487778278</v>
       </c>
       <c r="S38">
-        <v>0.9887071027759671</v>
+        <v>0.9897037495428244</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -2816,55 +2819,55 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.266625181005541</v>
+        <v>0.9826382437215103</v>
       </c>
       <c r="D39">
-        <v>0.9280493928758647</v>
+        <v>0.9927697568549259</v>
       </c>
       <c r="E39">
-        <v>0.9408178416674199</v>
+        <v>0.9894137502137792</v>
       </c>
       <c r="F39">
-        <v>1.266625181005541</v>
+        <v>0.9826382437215103</v>
       </c>
       <c r="G39">
-        <v>0.9809240900305947</v>
+        <v>0.9895070463101058</v>
       </c>
       <c r="H39">
-        <v>0.7877044342357484</v>
+        <v>0.9915309451433727</v>
       </c>
       <c r="I39">
-        <v>0.9816270723296585</v>
+        <v>0.9863828744121089</v>
       </c>
       <c r="J39">
-        <v>0.9280493928758647</v>
+        <v>0.9927697568549259</v>
       </c>
       <c r="K39">
-        <v>1.266625181005541</v>
+        <v>0.9826382437215103</v>
       </c>
       <c r="L39">
-        <v>0.9344336172716423</v>
+        <v>0.9910917535343525</v>
       </c>
       <c r="M39">
-        <v>0.9344336172716423</v>
+        <v>0.9910917535343525</v>
       </c>
       <c r="N39">
-        <v>0.9499304415246265</v>
+        <v>0.9905635177929369</v>
       </c>
       <c r="O39">
-        <v>1.045164138516275</v>
+        <v>0.9882739169300718</v>
       </c>
       <c r="P39">
-        <v>1.045164138516275</v>
+        <v>0.9882739169300718</v>
       </c>
       <c r="Q39">
-        <v>1.100529399138592</v>
+        <v>0.9868649986279314</v>
       </c>
       <c r="R39">
-        <v>1.100529399138592</v>
+        <v>0.9868649986279314</v>
       </c>
       <c r="S39">
-        <v>0.9809580020241379</v>
+        <v>0.9887071027759671</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -2875,55 +2878,55 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.418007356966467</v>
+        <v>1.266625181005541</v>
       </c>
       <c r="D40">
-        <v>0.8789127617915135</v>
+        <v>0.9280493928758647</v>
       </c>
       <c r="E40">
-        <v>0.9061087139362665</v>
+        <v>0.9408178416674199</v>
       </c>
       <c r="F40">
-        <v>1.418007356966467</v>
+        <v>1.266625181005541</v>
       </c>
       <c r="G40">
-        <v>0.9740867322624682</v>
+        <v>0.9809240900305947</v>
       </c>
       <c r="H40">
-        <v>0.7187060597877151</v>
+        <v>0.7877044342357484</v>
       </c>
       <c r="I40">
-        <v>0.9673137187537557</v>
+        <v>0.9816270723296585</v>
       </c>
       <c r="J40">
-        <v>0.8789127617915135</v>
+        <v>0.9280493928758647</v>
       </c>
       <c r="K40">
-        <v>1.418007356966467</v>
+        <v>1.266625181005541</v>
       </c>
       <c r="L40">
-        <v>0.8925107378638899</v>
+        <v>0.9344336172716423</v>
       </c>
       <c r="M40">
-        <v>0.8925107378638899</v>
+        <v>0.9344336172716423</v>
       </c>
       <c r="N40">
-        <v>0.9197027359967493</v>
+        <v>0.9499304415246265</v>
       </c>
       <c r="O40">
-        <v>1.067676277564749</v>
+        <v>1.045164138516275</v>
       </c>
       <c r="P40">
-        <v>1.067676277564749</v>
+        <v>1.045164138516275</v>
       </c>
       <c r="Q40">
-        <v>1.155259047415178</v>
+        <v>1.100529399138592</v>
       </c>
       <c r="R40">
-        <v>1.155259047415178</v>
+        <v>1.100529399138592</v>
       </c>
       <c r="S40">
-        <v>0.9771892239163643</v>
+        <v>0.9809580020241379</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2934,55 +2937,55 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.179457248158022</v>
+        <v>1.418007356966467</v>
       </c>
       <c r="D41">
-        <v>0.8981089030162317</v>
+        <v>0.8789127617915135</v>
       </c>
       <c r="E41">
-        <v>0.9716749392615511</v>
+        <v>0.9061087139362665</v>
       </c>
       <c r="F41">
-        <v>1.179457248158022</v>
+        <v>1.418007356966467</v>
       </c>
       <c r="G41">
-        <v>0.9407452504085482</v>
+        <v>0.9740867322624682</v>
       </c>
       <c r="H41">
-        <v>0.9226403443639241</v>
+        <v>0.7187060597877151</v>
       </c>
       <c r="I41">
-        <v>0.9986388243796258</v>
+        <v>0.9673137187537557</v>
       </c>
       <c r="J41">
-        <v>0.8981089030162317</v>
+        <v>0.8789127617915135</v>
       </c>
       <c r="K41">
-        <v>1.179457248158022</v>
+        <v>1.418007356966467</v>
       </c>
       <c r="L41">
-        <v>0.9348919211388914</v>
+        <v>0.8925107378638899</v>
       </c>
       <c r="M41">
-        <v>0.9348919211388914</v>
+        <v>0.8925107378638899</v>
       </c>
       <c r="N41">
-        <v>0.9368430308954436</v>
+        <v>0.9197027359967493</v>
       </c>
       <c r="O41">
-        <v>1.016413696811935</v>
+        <v>1.067676277564749</v>
       </c>
       <c r="P41">
-        <v>1.016413696811935</v>
+        <v>1.067676277564749</v>
       </c>
       <c r="Q41">
-        <v>1.057174584648457</v>
+        <v>1.155259047415178</v>
       </c>
       <c r="R41">
-        <v>1.057174584648457</v>
+        <v>1.155259047415178</v>
       </c>
       <c r="S41">
-        <v>0.9852109182646505</v>
+        <v>0.9771892239163643</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -2993,55 +2996,55 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.9789388070378372</v>
+        <v>1.179457248158022</v>
       </c>
       <c r="D42">
-        <v>0.9935902448694458</v>
+        <v>0.8981089030162317</v>
       </c>
       <c r="E42">
-        <v>0.9899272482550736</v>
+        <v>0.9716749392615511</v>
       </c>
       <c r="F42">
-        <v>0.9789388070378372</v>
+        <v>1.179457248158022</v>
       </c>
       <c r="G42">
-        <v>0.9899076353611531</v>
+        <v>0.9407452504085482</v>
       </c>
       <c r="H42">
-        <v>0.9922606136536838</v>
+        <v>0.9226403443639241</v>
       </c>
       <c r="I42">
-        <v>0.9864269834346819</v>
+        <v>0.9986388243796258</v>
       </c>
       <c r="J42">
-        <v>0.9935902448694458</v>
+        <v>0.8981089030162317</v>
       </c>
       <c r="K42">
-        <v>0.9789388070378372</v>
+        <v>1.179457248158022</v>
       </c>
       <c r="L42">
-        <v>0.9917587465622597</v>
+        <v>0.9348919211388914</v>
       </c>
       <c r="M42">
-        <v>0.9917587465622597</v>
+        <v>0.9348919211388914</v>
       </c>
       <c r="N42">
-        <v>0.9911417094952242</v>
+        <v>0.9368430308954436</v>
       </c>
       <c r="O42">
-        <v>0.9874854333874522</v>
+        <v>1.016413696811935</v>
       </c>
       <c r="P42">
-        <v>0.9874854333874522</v>
+        <v>1.016413696811935</v>
       </c>
       <c r="Q42">
-        <v>0.9853487768000485</v>
+        <v>1.057174584648457</v>
       </c>
       <c r="R42">
-        <v>0.9853487768000485</v>
+        <v>1.057174584648457</v>
       </c>
       <c r="S42">
-        <v>0.9885085887686459</v>
+        <v>0.9852109182646505</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3052,55 +3055,55 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>1.225241403172182</v>
+        <v>0.9789388070378372</v>
       </c>
       <c r="D43">
-        <v>0.9308957095921911</v>
+        <v>0.9935902448694458</v>
       </c>
       <c r="E43">
-        <v>0.9412892780776894</v>
+        <v>0.9899272482550736</v>
       </c>
       <c r="F43">
-        <v>1.225241403172182</v>
+        <v>0.9789388070378372</v>
       </c>
       <c r="G43">
-        <v>0.9835268575681666</v>
+        <v>0.9899076353611531</v>
       </c>
       <c r="H43">
-        <v>0.7939816180050515</v>
+        <v>0.9922606136536838</v>
       </c>
       <c r="I43">
-        <v>0.9820102889902659</v>
+        <v>0.9864269834346819</v>
       </c>
       <c r="J43">
-        <v>0.9308957095921911</v>
+        <v>0.9935902448694458</v>
       </c>
       <c r="K43">
-        <v>1.225241403172182</v>
+        <v>0.9789388070378372</v>
       </c>
       <c r="L43">
-        <v>0.9360924938349402</v>
+        <v>0.9917587465622597</v>
       </c>
       <c r="M43">
-        <v>0.9360924938349402</v>
+        <v>0.9917587465622597</v>
       </c>
       <c r="N43">
-        <v>0.9519039484126823</v>
+        <v>0.9911417094952242</v>
       </c>
       <c r="O43">
-        <v>1.032475463614021</v>
+        <v>0.9874854333874522</v>
       </c>
       <c r="P43">
-        <v>1.032475463614021</v>
+        <v>0.9874854333874522</v>
       </c>
       <c r="Q43">
-        <v>1.080666948503561</v>
+        <v>0.9853487768000485</v>
       </c>
       <c r="R43">
-        <v>1.080666948503561</v>
+        <v>0.9853487768000485</v>
       </c>
       <c r="S43">
-        <v>0.9761575259009243</v>
+        <v>0.9885085887686459</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3111,55 +3114,55 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>1.35873018757287</v>
+        <v>1.225241403172182</v>
       </c>
       <c r="D44">
-        <v>0.8831720030977702</v>
+        <v>0.9308957095921911</v>
       </c>
       <c r="E44">
-        <v>0.9080253896787873</v>
+        <v>0.9412892780776894</v>
       </c>
       <c r="F44">
-        <v>1.35873018757287</v>
+        <v>1.225241403172182</v>
       </c>
       <c r="G44">
-        <v>0.9785885752677341</v>
+        <v>0.9835268575681666</v>
       </c>
       <c r="H44">
-        <v>0.7240876945534264</v>
+        <v>0.7939816180050515</v>
       </c>
       <c r="I44">
-        <v>0.9710681819322847</v>
+        <v>0.9820102889902659</v>
       </c>
       <c r="J44">
-        <v>0.8831720030977702</v>
+        <v>0.9308957095921911</v>
       </c>
       <c r="K44">
-        <v>1.35873018757287</v>
+        <v>1.225241403172182</v>
       </c>
       <c r="L44">
-        <v>0.8955986963882787</v>
+        <v>0.9360924938349402</v>
       </c>
       <c r="M44">
-        <v>0.8955986963882787</v>
+        <v>0.9360924938349402</v>
       </c>
       <c r="N44">
-        <v>0.9232619893480972</v>
+        <v>0.9519039484126823</v>
       </c>
       <c r="O44">
-        <v>1.049975860116476</v>
+        <v>1.032475463614021</v>
       </c>
       <c r="P44">
-        <v>1.049975860116476</v>
+        <v>1.032475463614021</v>
       </c>
       <c r="Q44">
-        <v>1.127164441980574</v>
+        <v>1.080666948503561</v>
       </c>
       <c r="R44">
-        <v>1.127164441980574</v>
+        <v>1.080666948503561</v>
       </c>
       <c r="S44">
-        <v>0.9706120053504788</v>
+        <v>0.9761575259009243</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3170,55 +3173,55 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>1.15104503294867</v>
+        <v>1.35873018757287</v>
       </c>
       <c r="D45">
-        <v>0.9000185600465208</v>
+        <v>0.8831720030977702</v>
       </c>
       <c r="E45">
-        <v>0.9719419430291587</v>
+        <v>0.9080253896787873</v>
       </c>
       <c r="F45">
-        <v>1.15104503294867</v>
+        <v>1.35873018757287</v>
       </c>
       <c r="G45">
-        <v>0.9433537736456682</v>
+        <v>0.9785885752677341</v>
       </c>
       <c r="H45">
-        <v>0.9250481207259319</v>
+        <v>0.7240876945534264</v>
       </c>
       <c r="I45">
-        <v>0.9990024903181282</v>
+        <v>0.9710681819322847</v>
       </c>
       <c r="J45">
-        <v>0.9000185600465208</v>
+        <v>0.8831720030977702</v>
       </c>
       <c r="K45">
-        <v>1.15104503294867</v>
+        <v>1.35873018757287</v>
       </c>
       <c r="L45">
-        <v>0.9359802515378397</v>
+        <v>0.8955986963882787</v>
       </c>
       <c r="M45">
-        <v>0.9359802515378397</v>
+        <v>0.8955986963882787</v>
       </c>
       <c r="N45">
-        <v>0.9384380922404492</v>
+        <v>0.9232619893480972</v>
       </c>
       <c r="O45">
-        <v>1.007668512008117</v>
+        <v>1.049975860116476</v>
       </c>
       <c r="P45">
-        <v>1.007668512008117</v>
+        <v>1.049975860116476</v>
       </c>
       <c r="Q45">
-        <v>1.043512642243255</v>
+        <v>1.127164441980574</v>
       </c>
       <c r="R45">
-        <v>1.043512642243255</v>
+        <v>1.127164441980574</v>
       </c>
       <c r="S45">
-        <v>0.9817349867856797</v>
+        <v>0.9706120053504788</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3229,55 +3232,55 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.9757808360108808</v>
+        <v>1.15104503294867</v>
       </c>
       <c r="D46">
-        <v>0.9942141510823619</v>
+        <v>0.9000185600465208</v>
       </c>
       <c r="E46">
-        <v>0.9900759183620237</v>
+        <v>0.9719419430291587</v>
       </c>
       <c r="F46">
-        <v>0.9757808360108808</v>
+        <v>1.15104503294867</v>
       </c>
       <c r="G46">
-        <v>0.9904259052134669</v>
+        <v>0.9433537736456682</v>
       </c>
       <c r="H46">
-        <v>0.9931004530466464</v>
+        <v>0.9250481207259319</v>
       </c>
       <c r="I46">
-        <v>0.9864324806107843</v>
+        <v>0.9990024903181282</v>
       </c>
       <c r="J46">
-        <v>0.9942141510823619</v>
+        <v>0.9000185600465208</v>
       </c>
       <c r="K46">
-        <v>0.9757808360108808</v>
+        <v>1.15104503294867</v>
       </c>
       <c r="L46">
-        <v>0.9921450347221927</v>
+        <v>0.9359802515378397</v>
       </c>
       <c r="M46">
-        <v>0.9921450347221927</v>
+        <v>0.9359802515378397</v>
       </c>
       <c r="N46">
-        <v>0.9915719915526174</v>
+        <v>0.9384380922404492</v>
       </c>
       <c r="O46">
-        <v>0.9866903018184221</v>
+        <v>1.007668512008117</v>
       </c>
       <c r="P46">
-        <v>0.9866903018184221</v>
+        <v>1.007668512008117</v>
       </c>
       <c r="Q46">
-        <v>0.9839629353665368</v>
+        <v>1.043512642243255</v>
       </c>
       <c r="R46">
-        <v>0.9839629353665368</v>
+        <v>1.043512642243255</v>
       </c>
       <c r="S46">
-        <v>0.9883382907210274</v>
+        <v>0.9817349867856797</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3288,55 +3291,55 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>1.191457043042797</v>
+        <v>0.9757808360108808</v>
       </c>
       <c r="D47">
-        <v>0.9334287978636379</v>
+        <v>0.9942141510823619</v>
       </c>
       <c r="E47">
-        <v>0.9414046159733629</v>
+        <v>0.9900759183620237</v>
       </c>
       <c r="F47">
-        <v>1.191457043042797</v>
+        <v>0.9757808360108808</v>
       </c>
       <c r="G47">
-        <v>0.9861166384078088</v>
+        <v>0.9904259052134669</v>
       </c>
       <c r="H47">
-        <v>0.8004912940611111</v>
+        <v>0.9931004530466464</v>
       </c>
       <c r="I47">
-        <v>0.9824990202127654</v>
+        <v>0.9864324806107843</v>
       </c>
       <c r="J47">
-        <v>0.9334287978636379</v>
+        <v>0.9942141510823619</v>
       </c>
       <c r="K47">
-        <v>1.191457043042797</v>
+        <v>0.9757808360108808</v>
       </c>
       <c r="L47">
-        <v>0.9374167069185004</v>
+        <v>0.9921450347221927</v>
       </c>
       <c r="M47">
-        <v>0.9374167069185004</v>
+        <v>0.9921450347221927</v>
       </c>
       <c r="N47">
-        <v>0.9536500174149366</v>
+        <v>0.9915719915526174</v>
       </c>
       <c r="O47">
-        <v>1.022096818959933</v>
+        <v>0.9866903018184221</v>
       </c>
       <c r="P47">
-        <v>1.022096818959933</v>
+        <v>0.9866903018184221</v>
       </c>
       <c r="Q47">
-        <v>1.064436874980649</v>
+        <v>0.9839629353665368</v>
       </c>
       <c r="R47">
-        <v>1.064436874980649</v>
+        <v>0.9839629353665368</v>
       </c>
       <c r="S47">
-        <v>0.972566234926914</v>
+        <v>0.9883382907210274</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3347,54 +3350,113 @@
         <v>46</v>
       </c>
       <c r="C48">
+        <v>1.191457043042797</v>
+      </c>
+      <c r="D48">
+        <v>0.9334287978636379</v>
+      </c>
+      <c r="E48">
+        <v>0.9414046159733629</v>
+      </c>
+      <c r="F48">
+        <v>1.191457043042797</v>
+      </c>
+      <c r="G48">
+        <v>0.9861166384078088</v>
+      </c>
+      <c r="H48">
+        <v>0.8004912940611111</v>
+      </c>
+      <c r="I48">
+        <v>0.9824990202127654</v>
+      </c>
+      <c r="J48">
+        <v>0.9334287978636379</v>
+      </c>
+      <c r="K48">
+        <v>1.191457043042797</v>
+      </c>
+      <c r="L48">
+        <v>0.9374167069185004</v>
+      </c>
+      <c r="M48">
+        <v>0.9374167069185004</v>
+      </c>
+      <c r="N48">
+        <v>0.9536500174149366</v>
+      </c>
+      <c r="O48">
+        <v>1.022096818959933</v>
+      </c>
+      <c r="P48">
+        <v>1.022096818959933</v>
+      </c>
+      <c r="Q48">
+        <v>1.064436874980649</v>
+      </c>
+      <c r="R48">
+        <v>1.064436874980649</v>
+      </c>
+      <c r="S48">
+        <v>0.972566234926914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
         <v>1.310131474984319</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>0.8866584078790281</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>0.9093638203193468</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>1.310131474984319</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>0.9829850340511967</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>0.7296798098872768</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>0.9746617656551664</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <v>0.8866584078790281</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <v>1.310131474984319</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>0.8980111140991874</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <v>0.8980111140991874</v>
       </c>
-      <c r="N48">
+      <c r="N49">
         <v>0.9263357540831905</v>
       </c>
-      <c r="O48">
+      <c r="O49">
         <v>1.035384567727564</v>
       </c>
-      <c r="P48">
+      <c r="P49">
         <v>1.035384567727564</v>
       </c>
-      <c r="Q48">
+      <c r="Q49">
         <v>1.104071294541753</v>
       </c>
-      <c r="R48">
+      <c r="R49">
         <v>1.104071294541753</v>
       </c>
-      <c r="S48">
+      <c r="S49">
         <v>0.9655800521293888</v>
       </c>
     </row>
